--- a/resources/output_pattern.xlsx
+++ b/resources/output_pattern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a5892\PycharmProjects\excel-handler\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654E7793-9237-41F3-8CD2-D6AAD5414D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42140383-E9D4-478B-AEF6-2AE00B55F78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2595" windowWidth="21600" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="4245" windowWidth="21600" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" style="6" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" customWidth="1"/>
